--- a/08_Protect_Mode/10 代码块段调用(长调用).xlsx
+++ b/08_Protect_Mode/10 代码块段调用(长调用).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88E84AB-18FA-4D99-971B-0CC4898C1B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367A5453-21FB-481E-8250-4BE65E546595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,15 +80,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1、发生改变的寄存器：ESP EIP  CS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(2、最后使用 retf 进行长返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1、发生改变的寄存器：ESP EIP  CS SS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -127,95 +119,6 @@
   </si>
   <si>
     <r>
-      <t>2) CS</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的权限一旦改变，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SS</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的权限也要随着改变，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CS</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>与</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SS</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的等级必须一样</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">3) JMP FAR </t>
     </r>
     <r>
@@ -357,6 +260,103 @@
   </si>
   <si>
     <t>4、总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1、发生改变的寄存器：EIP  CS(来自于 构造的段描述符)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2) CS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的权限一旦改变，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的权限也要随着改变，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的等级必须一样</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>(1、发生改变的寄存器：EIP  CS(来自于构造的段描述符) ESP(from tss) SS(from tss)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2306,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2345,14 +2345,14 @@
     </row>
     <row r="10" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
     <row r="12" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -2366,7 +2366,7 @@
     <row r="13" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -2378,8 +2378,8 @@
     </row>
     <row r="14" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
-        <v>12</v>
+      <c r="C14" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -2392,7 +2392,7 @@
     <row r="15" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -2405,7 +2405,7 @@
     <row r="16" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -2418,7 +2418,7 @@
     <row r="17" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -2463,14 +2463,14 @@
   <dimension ref="B24:G25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2500,15 +2500,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9469B7C5-38C5-419E-BBA1-A4E8F1816761}">
   <dimension ref="B22:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
